--- a/scale2uplogdet.xlsx
+++ b/scale2uplogdet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t xml:space="preserve">RF Dist with </t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Sequence 3</t>
+  </si>
+  <si>
+    <t>Sequence 4</t>
+  </si>
+  <si>
+    <t>Sequence 5</t>
+  </si>
+  <si>
+    <t>Sequence 6</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="2:13">
       <c r="C17">
         <v>36</v>
       </c>
@@ -724,7 +733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="2:13">
       <c r="C18">
         <v>100</v>
       </c>
@@ -747,7 +756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="2:13">
       <c r="C19">
         <v>225</v>
       </c>
@@ -770,7 +779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="2:13">
       <c r="C20">
         <v>342</v>
       </c>
@@ -785,6 +794,402 @@
       </c>
       <c r="K20">
         <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>26</v>
+      </c>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="I25">
+        <v>34</v>
+      </c>
+      <c r="J25">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="C26">
+        <v>225</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>46</v>
+      </c>
+      <c r="I26">
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27">
+        <v>342</v>
+      </c>
+      <c r="E27">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <v>58</v>
+      </c>
+      <c r="J27">
+        <v>68</v>
+      </c>
+      <c r="K27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="C33">
+        <v>225</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>46</v>
+      </c>
+      <c r="I33">
+        <v>54</v>
+      </c>
+      <c r="J33">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="C34">
+        <v>342</v>
+      </c>
+      <c r="E34">
+        <v>68</v>
+      </c>
+      <c r="F34">
+        <v>58</v>
+      </c>
+      <c r="J34">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>34</v>
+      </c>
+      <c r="I38">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="C40">
+        <v>225</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>46</v>
+      </c>
+      <c r="F40">
+        <v>46</v>
+      </c>
+      <c r="I40">
+        <v>36</v>
+      </c>
+      <c r="J40">
+        <v>48</v>
+      </c>
+      <c r="K40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="C41">
+        <v>342</v>
+      </c>
+      <c r="E41">
+        <v>66</v>
+      </c>
+      <c r="F41">
+        <v>48</v>
+      </c>
+      <c r="J41">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/scale2uplogdet.xlsx
+++ b/scale2uplogdet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
   <si>
     <t xml:space="preserve">RF Dist with </t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Sequence 6</t>
+  </si>
+  <si>
+    <t>Sequence 7</t>
+  </si>
+  <si>
+    <t>Sequence 8</t>
+  </si>
+  <si>
+    <t>Sequence 9</t>
   </si>
 </sst>
 </file>
@@ -389,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M41"/>
+  <dimension ref="B1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1190,6 +1199,402 @@
       </c>
       <c r="K41">
         <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>34</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>34</v>
+      </c>
+      <c r="J46">
+        <v>28</v>
+      </c>
+      <c r="K46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="C47">
+        <v>225</v>
+      </c>
+      <c r="D47">
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+      <c r="F47">
+        <v>44</v>
+      </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>44</v>
+      </c>
+      <c r="K47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="C48">
+        <v>342</v>
+      </c>
+      <c r="E48">
+        <v>66</v>
+      </c>
+      <c r="F48">
+        <v>58</v>
+      </c>
+      <c r="J48">
+        <v>66</v>
+      </c>
+      <c r="K48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="C52">
+        <v>36</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="E52">
+        <v>32</v>
+      </c>
+      <c r="F52">
+        <v>28</v>
+      </c>
+      <c r="I52">
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <v>38</v>
+      </c>
+      <c r="K52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>44</v>
+      </c>
+      <c r="I53">
+        <v>42</v>
+      </c>
+      <c r="J53">
+        <v>40</v>
+      </c>
+      <c r="K53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="C54">
+        <v>225</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>48</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <v>46</v>
+      </c>
+      <c r="K54">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="C55">
+        <v>342</v>
+      </c>
+      <c r="E55">
+        <v>68</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <v>68</v>
+      </c>
+      <c r="K55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="C59">
+        <v>36</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>22</v>
+      </c>
+      <c r="J59">
+        <v>16</v>
+      </c>
+      <c r="K59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>36</v>
+      </c>
+      <c r="J60">
+        <v>38</v>
+      </c>
+      <c r="K60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="C61">
+        <v>225</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>42</v>
+      </c>
+      <c r="J61">
+        <v>24</v>
+      </c>
+      <c r="K61">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="C62">
+        <v>342</v>
+      </c>
+      <c r="E62">
+        <v>68</v>
+      </c>
+      <c r="F62">
+        <v>58</v>
+      </c>
+      <c r="J62">
+        <v>68</v>
+      </c>
+      <c r="K62">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
